--- a/Base_User_Interface_1.xlsx
+++ b/Base_User_Interface_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26 Software Framework\Base Case_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EECB2CC-1A1E-4EE2-A918-9449E5C3B361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542A59AD-2AC5-4C2C-9029-BAACE18AA1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5617,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
